--- a/Project_181/TestData/InputData.xlsx
+++ b/Project_181/TestData/InputData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F4B732-EDD0-4BC4-9105-09AC7E09F923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40E46B-4E31-4A88-86BE-763E32E866D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
   <si>
     <t>Application_URL</t>
   </si>
@@ -262,141 +261,6 @@
     <t>Enter password</t>
   </si>
   <si>
-    <t>Arjun1</t>
-  </si>
-  <si>
-    <t>pwd1</t>
-  </si>
-  <si>
-    <t>Arjun2</t>
-  </si>
-  <si>
-    <t>Arjun3</t>
-  </si>
-  <si>
-    <t>Arjun4</t>
-  </si>
-  <si>
-    <t>Arjun5</t>
-  </si>
-  <si>
-    <t>Arjun6</t>
-  </si>
-  <si>
-    <t>Arjun7</t>
-  </si>
-  <si>
-    <t>Arjun8</t>
-  </si>
-  <si>
-    <t>Arjun9</t>
-  </si>
-  <si>
-    <t>Arjun10</t>
-  </si>
-  <si>
-    <t>Arjun11</t>
-  </si>
-  <si>
-    <t>Arjun12</t>
-  </si>
-  <si>
-    <t>Arjun13</t>
-  </si>
-  <si>
-    <t>Arjun14</t>
-  </si>
-  <si>
-    <t>pwd2</t>
-  </si>
-  <si>
-    <t>pwd3</t>
-  </si>
-  <si>
-    <t>pwd4</t>
-  </si>
-  <si>
-    <t>pwd5</t>
-  </si>
-  <si>
-    <t>pwd6</t>
-  </si>
-  <si>
-    <t>pwd7</t>
-  </si>
-  <si>
-    <t>pwd8</t>
-  </si>
-  <si>
-    <t>pwd9</t>
-  </si>
-  <si>
-    <t>pwd10</t>
-  </si>
-  <si>
-    <t>pwd11</t>
-  </si>
-  <si>
-    <t>pwd12</t>
-  </si>
-  <si>
-    <t>pwd13</t>
-  </si>
-  <si>
-    <t>pwd14</t>
-  </si>
-  <si>
-    <t>akbar1</t>
-  </si>
-  <si>
-    <t>anthony 1</t>
-  </si>
-  <si>
-    <t>akbar2</t>
-  </si>
-  <si>
-    <t>anthony 2</t>
-  </si>
-  <si>
-    <t>akbar3</t>
-  </si>
-  <si>
-    <t>anthony 3</t>
-  </si>
-  <si>
-    <t>akbar4</t>
-  </si>
-  <si>
-    <t>anthony 4</t>
-  </si>
-  <si>
-    <t>akbar5</t>
-  </si>
-  <si>
-    <t>anthony 5</t>
-  </si>
-  <si>
-    <t>akbar6</t>
-  </si>
-  <si>
-    <t>anthony 6</t>
-  </si>
-  <si>
-    <t>akbar7</t>
-  </si>
-  <si>
-    <t>anthony 7</t>
-  </si>
-  <si>
-    <t>akbar8</t>
-  </si>
-  <si>
-    <t>anthony 8</t>
-  </si>
-  <si>
-    <t>9999980989</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -410,6 +274,21 @@
   </si>
   <si>
     <t>(//a[@class='internal sign-in-link'])[2]</t>
+  </si>
+  <si>
+    <t>Aakash</t>
+  </si>
+  <si>
+    <t>Raj123</t>
+  </si>
+  <si>
+    <t>Giigke</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Hello123</t>
   </si>
 </sst>
 </file>
@@ -446,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,12 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +412,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -549,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -559,8 +432,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -572,9 +445,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,6 +459,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -906,10 +797,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>124</v>
+        <v>78</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -926,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>1200.2</v>
@@ -941,7 +832,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="32"/>
+      <c r="D10" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -955,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638C467-69D5-461C-862D-80FD5F39A4D1}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1059,10 +950,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>22</v>
@@ -1096,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78B6097-0CBA-4093-A089-AB751E719E32}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8F82DA-03D2-42B7-978A-50C37BFBDACB}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1190,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -1341,7 +1232,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -1369,7 +1260,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -1429,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CA44E9-BB6B-4BD9-A10A-3FBB363C5158}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,33 +1392,33 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="34" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1541,7 +1432,7 @@
       <c r="C7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -1557,7 +1448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>66</v>
       </c>
@@ -1567,7 +1458,7 @@
       <c r="C8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="36" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -1593,7 +1484,7 @@
       <c r="C9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="24" t="s">
         <v>67</v>
       </c>
@@ -1617,7 +1508,7 @@
       <c r="C10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -1634,54 +1525,54 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="38">
         <v>9030248855</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1698,239 +1589,66 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED37A0B-6763-4197-B518-8A42C8DA435E}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE55025E-9CC0-40CF-B73D-52D9046622D9}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B7FD9-12BE-45D5-B703-218DD062E3F1}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="32"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="33">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>903024</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33">
+        <v>12345</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project_181/TestData/InputData.xlsx
+++ b/Project_181/TestData/InputData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40E46B-4E31-4A88-86BE-763E32E866D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED871EDC-DBEE-4DC6-9CB4-9E83B1DDB1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
   <si>
     <t>Application_URL</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Xpath_SignInButton</t>
   </si>
   <si>
-    <t>//div[@class='buttonLargeBlue']</t>
-  </si>
-  <si>
     <t>//input[@id='i0116']</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>Tc0015_Email_val_Blank_Email</t>
   </si>
   <si>
-    <t>Please enter a valid email address, phone number, or Skype name.</t>
-  </si>
-  <si>
     <t>Tc0016 _Email_val_Valid</t>
   </si>
   <si>
@@ -289,6 +283,9 @@
   </si>
   <si>
     <t>Hello123</t>
+  </si>
+  <si>
+    <t>Enter a valid email address, phone number, or Skype name.</t>
   </si>
 </sst>
 </file>
@@ -797,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>1200.2</v>
@@ -950,28 +947,28 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +998,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -1009,31 +1006,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -1041,74 +1038,74 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1135,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -1146,166 +1143,166 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1320,18 +1317,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CA44E9-BB6B-4BD9-A10A-3FBB363C5158}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.140625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
   </cols>
@@ -1413,167 +1410,167 @@
         <v>17</v>
       </c>
       <c r="F6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="34" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>68</v>
-      </c>
       <c r="E8" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="38">
         <v>9030248855</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1585,6 +1582,7 @@
     <hyperlink ref="F8" r:id="rId5" display="https://signup.live.com/?wa=wsignin1.0&amp;rpsnv=13&amp;ct=1497332395&amp;rver=6.7.6643.0&amp;wp=MBI_SSL_SHARED&amp;wreply=https:%2F%2Fmail.live.com%2Fdefault.aspx&amp;id=64855&amp;cbcxt=mai&amp;contextid=4D70C016EE6A8815&amp;bk=1497332396&amp;uiflavor=web&amp;uaid=fdee74ceb28d48ea8053fc371e6bd1b1&amp;mkt=EN-US&amp;lc=1033" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1604,7 +1602,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -1612,7 +1610,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="33">
         <v>12345</v>
@@ -1621,7 +1619,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,15 +1627,15 @@
         <v>903024</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
